--- a/ittia-collection/src/array1234/Thyroidpe.xlsx
+++ b/ittia-collection/src/array1234/Thyroidpe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t xml:space="preserve">-----------------------------   
 Findings in Thyroid Disease 
@@ -193,19 +193,34 @@
     <t xml:space="preserve">Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)</t>
   </si>
   <si>
+    <t xml:space="preserve">Class 1 : Only signs </t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)</t>
   </si>
   <si>
+    <t xml:space="preserve">Class 2 : Soft tissue involvement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 3 : Proptosis</t>
   </si>
   <si>
     <t xml:space="preserve">Class 4 : Extraocular muscle involvement (usually with diplopia)</t>
   </si>
   <si>
+    <t xml:space="preserve">Class 4 : Extraocular muscle involvement </t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 5 : Corneal involvement (primarily due to lagophthalmos)</t>
   </si>
   <si>
+    <t xml:space="preserve">Class 5 : Corneal involvement </t>
+  </si>
+  <si>
     <t xml:space="preserve">Class 6 : Sight loss (due to optic nerve involvement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 6 : Sight loss</t>
   </si>
 </sst>
 </file>
@@ -338,13 +353,13 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.6328125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.59375" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="135.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -421,11 +436,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.15625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.1328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -573,55 +588,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
